--- a/Project Documents/ScoreDescriptor.xlsx
+++ b/Project Documents/ScoreDescriptor.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t00195739\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>Characters</t>
   </si>
@@ -66,9 +66,6 @@
     <t>Describe Role in game</t>
   </si>
   <si>
-    <t>Text description of role in game</t>
-  </si>
-  <si>
     <t>Internal Functionality</t>
   </si>
   <si>
@@ -84,21 +81,9 @@
     <t>External Incoming</t>
   </si>
   <si>
-    <t>Text Description</t>
-  </si>
-  <si>
-    <t>Parameters</t>
-  </si>
-  <si>
     <t>ShouldTurnLeft</t>
   </si>
   <si>
-    <t xml:space="preserve">Return </t>
-  </si>
-  <si>
-    <t>Communication with?</t>
-  </si>
-  <si>
     <t>Egg</t>
   </si>
   <si>
@@ -115,6 +100,30 @@
   </si>
   <si>
     <t>https://unity3d.com/learn/tutorials/topics/scripting/interfaces</t>
+  </si>
+  <si>
+    <t>Display the score on screen, and add to score when an enemy is killed or a collectable is found</t>
+  </si>
+  <si>
+    <t>Score increase when an enemy is killed or a collectable object is found</t>
+  </si>
+  <si>
+    <t>Enemy killed, collectable found</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pop-Up Score, Game-Manager, Enemy, </t>
+  </si>
+  <si>
+    <t>Pop-Up Score, Game Manager, Enemy,</t>
+  </si>
+  <si>
+    <t>Score Increase.</t>
+  </si>
+  <si>
+    <t>Incoming score count from Pop-Up Score, which is added to the current game score.</t>
+  </si>
+  <si>
+    <t>Score is sent to game manager upon game ending or level increase</t>
   </si>
 </sst>
 </file>
@@ -469,7 +478,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -519,12 +528,12 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
@@ -539,7 +548,7 @@
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
@@ -583,13 +592,15 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G16" sqref="A1:G16"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.140625" customWidth="1"/>
-    <col min="2" max="2" width="27.85546875" customWidth="1"/>
+    <col min="2" max="2" width="78" customWidth="1"/>
+    <col min="3" max="3" width="26.5703125" customWidth="1"/>
+    <col min="5" max="5" width="27.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -605,66 +616,66 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E13" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
